--- a/medicine/Mort/Décès_en_1931/Décès_en_1931.xlsx
+++ b/medicine/Mort/Décès_en_1931/Décès_en_1931.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1931</t>
+          <t>Décès_en_1931</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1931</t>
+          <t>Décès_en_1931</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,12 +540,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Inconnu
-Guydo, peintre, affichiste, dessinateur et illustrateur français (° 22 avril 1868).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Guydo, peintre, affichiste, dessinateur et illustrateur français (° 22 avril 1868).
 Otton Mieczysław Żukowski, compositeur polonais (° 1867).
-Virginia Frances Sterrett, illustratrice américaine (° 1900).
-Janvier
-3 janvier : le maréchal Joffre, le « vainqueur de la Marne » et académicien (° 12 janvier 1852).
+Virginia Frances Sterrett, illustratrice américaine (° 1900).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3 janvier : le maréchal Joffre, le « vainqueur de la Marne » et académicien (° 12 janvier 1852).
 4 janvier : Art Acord, acteur américain (° 17 avril 1890).
 5 janvier :
 Henry Ebel, peintre et décorateur français (° 3 juillet 1849).
@@ -555,9 +606,43 @@
 26 janvier : César Pattein, peintre français (° 30 septembre 1850).
 31 janvier :
 José Berdié, footballeur espagnol (° 1887).
-Charles Meyer, coureur cycliste dano-français (° 16 mars 1868).
-Février
-1er février :
+Charles Meyer, coureur cycliste dano-français (° 16 mars 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1er février :
 Honoré Cavaroc, peintre et photographe français (° 18 décembre 1846).
 Lluís d'Ossó, pionnier du football espagnol, membre fondateur du FC Barcelone (° 1877).
 4 février :
@@ -571,9 +656,43 @@
 Narashige Koide, peintre et illustrateur japonais (° 13 octobre 1887).
 15 février : Nicolae Petrescu-Găină, caricaturiste roumain (° 31 mars 1871).
 16 février : Juan Vert, compositeur espagnol de zarzuelas (° 22 avril 1890).
-28 février : Eugène Béjot, peintre et graveur français (° 31 août 1867).
-Mars
-4 mars : Thomas Hutton-Mills Senior, avocat et leader nationaliste de la Côte-de-l'Or britannique (° 13 juin 1865).
+28 février : Eugène Béjot, peintre et graveur français (° 31 août 1867).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>4 mars : Thomas Hutton-Mills Senior, avocat et leader nationaliste de la Côte-de-l'Or britannique (° 13 juin 1865).
 7 mars :
 Lupu Pick, acteur, réalisateur, scénariste et producteur allemand (° 2 janvier 1886).
 Antoine Degert, écrivain, religieux et enseignant français  (° 9 décembre 1859)
@@ -582,9 +701,43 @@
 17 mars : Pietro Maffi, cardinal italien, archevêque de Pise de 1903 à 1931 (° 12 octobre 1858).
 18 mars : Friedrich Murnau, réalisateur allemand (° 28 décembre 1888).
 19 mars : Umberto Maddalena, pilote d'avion italien (° 14 décembre 1894).
-24 mars : Ernest Quost, peintre français (° 24 février 1842).
-Avril
-1er avril :
+24 mars : Ernest Quost, peintre français (° 24 février 1842).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1er avril :
 Macklyn Arbuckle, acteur américain (° 9 juillet 1866).
 Paul Guignebault, peintre, dessinateur et graveur français (° 15 avril 1871).
 2 avril : André Michelin, ingénieur et industriel français (° 15 janvier 1853).
@@ -599,48 +752,252 @@
 23 avril : Jean-Victor Augagneur, homme politique français (° 16 mai 1855).
 25 avril : Abraham Mintchine, peintre russe puis soviétique (° 4 avril 1898).
 27 avril : Octave Morillot, peintre français (° 29 août 1878).
-30 avril : Marguerite Pinès de Merbitz, peintre française (° 17 juin 1845).
-Mai
-12 mai :
+30 avril : Marguerite Pinès de Merbitz, peintre française (° 17 juin 1845).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>12 mai :
 Josef Kaspar Sattler, peintre, dessinateur et graveur allemand (° 20 juillet 1867).
 Eugène Ysaÿe, violoniste belge (° 16 juillet 1858).
 13 mai : Robert Noir, peintre, illustrateur et aquarelliste français (° 16 mai 1864).
-31 mai : Willy Stöwer, peintre allemand (° 22 mai 1864).
-Juin
-1er juin : Paul Cappé, compositeur français (° 1869).
+31 mai : Willy Stöwer, peintre allemand (° 22 mai 1864).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1er juin : Paul Cappé, compositeur français (° 1869).
 2 juin : Jules Lagae, sculpteur belge (° 15 mars 1862).
 13 juin : Richard Ranft, peintre paysagiste, dessinateur et graveur suisse (° 18 juillet 1862).
 14 juin :
 Jimmy Blythe, pianiste de jazz américain (° 20 mai 1901).
 Giuseppe Mentessi, peintre italien (° 29 septembre 1857).
 22 juin : Armand Fallières, ancien président de la république française (° 6 novembre 1841).
-25 juin : Maurice Vauthier, homme politique belge (° 2 mars 1860).
-Juillet
-2 juillet : Charles Quef, organiste et compositeur français (° 1er novembre 1873).
+25 juin : Maurice Vauthier, homme politique belge (° 2 mars 1860).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Charles Quef, organiste et compositeur français (° 1er novembre 1873).
 3 juillet : Alexis Axilette, peintre français (° 10 octobre 1860).
 7 juillet : Pierre-Paul-Léon Glaize, peintre français (° 3 février 1842).
 11 juillet : Jean-Louis Forain, peintre, goguettier, illustrateur et graveur français (° 23 octobre 1852).
 14 juillet : Friedrich von Payer, homme politique allemand (° 12 juin 1847).
 18 juillet : Hermann Hendrich, peintre allemand (° 31 octobre 1854).
 21 juillet : Herman Bemberg, compositeur français (° 29 mars 1859).
-28 juillet : Charles Joseph Doherty, homme politique fédéral canadien provenant du Québec (° 11 mai 1855).
-Août
-1er août : André Delaistre, peintre paysagiste français (° 10 septembre 1865).
+28 juillet : Charles Joseph Doherty, homme politique fédéral canadien provenant du Québec (° 11 mai 1855).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : André Delaistre, peintre paysagiste français (° 10 septembre 1865).
 5 août :
 Henri Jourdain, peintre, sculpteur, dessinateur, graveur et illustrateur français (° 30 novembre 1863).
 Ma Qi, général et homme politique chinois (° 1869).
-14 août : Gitanillo de Triana (Francisco Vega de los Reyes), matador espagnol (° 23 septembre 1903).
-Septembre
-6 septembre : Marcel-Lenoir, peintre, fresquiste, bijoutier, enlumineur, graveur et dessinateur français (° 11 mai 1872).
+14 août : Gitanillo de Triana (Francisco Vega de los Reyes), matador espagnol (° 23 septembre 1903).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>6 septembre : Marcel-Lenoir, peintre, fresquiste, bijoutier, enlumineur, graveur et dessinateur français (° 11 mai 1872).
 9 septembre : Lujo Brentano économiste et un grand réformateur social allemand (° 18 décembre 1844).
 10 septembre : Salvatore Maranzano, mafioso italo-américain (° 31 juillet 1886).
 12 septembre : Joseph Marie Le Brix, pilote français de l'aviation maritime (° 22 février 1899).
 19 septembre : Sergueï Svetoslavski, peintre paysagiste russe puis soviétique (° 6 octobre 1857).
 20 septembre : Ugo Falena, réalisateur de cinéma de la période du muet et librettiste d'opéra italien (° 25 avril 1875).
 28 septembre : Sylvain Dupuis, musicien, chef d'orchestre, compositeur et pédagogue belge (° 9 octobre 1856).
-30 septembre : Ernest de Chamaillard, peintre français de l'École de Pont-Aven (° 9 décembre 1862).
-Octobre
-1er octobre : Gabriel Desrivières, peintre français (° 25 janvier 1857).
+30 septembre : Ernest de Chamaillard, peintre français de l'École de Pont-Aven (° 9 décembre 1862).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1er octobre : Gabriel Desrivières, peintre français (° 25 janvier 1857).
 2 octobre : le prince Jacques de Bourbon, duc d'Anjou et de Madrid, aîné des Capétiens et chef de la maison de France (° 27 juin 1870).
 3 octobre : Carl Nielsen, compositeur danois (° 9 juin 1865).
 9 octobre : David Matalon, homme politique grec (° 1872).
@@ -655,9 +1012,43 @@
 John Mary Abbey, facteur d'orgues français (° 23 février 1886).
 George Gibbs (1er baron Wraxall), homme politique britannique (° 6 juillet 1873).
 Carmelo Pérez (Armando Pedro Antonio Procopio Pérez Gutiérrez), matador mexicain (° 23 décembre 1908).
-29 octobre : Gabriel Koenigs, mathématicien français (° 17 janvier 1858).
-Novembre
-1er novembre : Fred Huntley, acteur, réalisateur et scénariste britannique (° 29 août 1862).
+29 octobre : Gabriel Koenigs, mathématicien français (° 17 janvier 1858).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : Fred Huntley, acteur, réalisateur et scénariste britannique (° 29 août 1862).
 4 novembre : Luigi Galleani, théoricien anarchiste italien, éditeur du journal Cronaca Sovversiva (° 12 août 1861).
 7 novembre : Anton Huotari, député et rédacteur en chef finlandais (° 21 janvier 1881).
 12 novembre : William Barbotin, peintre, sculpteur et graveur français, collaborateur de la presse libertaire (° 25 août 1861).
@@ -668,9 +1059,43 @@
 Helmut Kolle, peintre allemand (° 24 février 1899).
 27 novembre : Robert Ames, acteur américain (° 23 mars 1889).
 29 novembre : Deng Yanda, officier militaire du Parti nationaliste chinois (° 1er mars 1895).
-30 novembre : Marc Delmas, compositeur français (° 28 mars 1885).
-Décembre
-2 décembre : Vincent d'Indy, compositeur français (° 27 mars 1851).
+30 novembre : Marc Delmas, compositeur français (° 28 mars 1885).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2 décembre : Vincent d'Indy, compositeur français (° 27 mars 1851).
 10 décembre : Enrico Corradini, écrivain et homme politique italien (° 20 juillet 1865).
 11 décembre : Willem de Zwart, peintre et graveur néerlandais (° 16 mai 1862).
 13 décembre : Gustave Le Bon, sociologue et philosophe français (° 7 mai 1841).
@@ -679,9 +1104,43 @@
 26 décembre : Paul Baudoüin, peintre français (° 24 octobre 1844).
 27 décembre : José Figueroa Alcorta, avocat et homme politique argentin (° 20 novembre 1860).
 29 décembre : Émile Jourdan, peintre français (° 30 juillet 1860).
-30 décembre : George Eulas Foster, enseignant et politicien (° 3 septembre 1847).
-Date précise inconnue
-Édouard Michel-Lançon, peintre français (° 20 octobre 1854).
+30 décembre : George Eulas Foster, enseignant et politicien (° 3 septembre 1847).</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Décès_en_1931</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1931</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Date précise inconnue</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Édouard Michel-Lançon, peintre français (° 20 octobre 1854).
 Sadami Yokote, peintre figuratif japonais (° 1899).</t>
         </is>
       </c>
